--- a/cities.xlsx
+++ b/cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA7F3F4-AED7-4101-B67C-BEB1ADC8F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D0E857-38C7-4142-8ED2-E9DD0ECD608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92C253D6-470C-4C3F-BAE2-80890DFA2693}"/>
   </bookViews>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35F3EBB-DF39-4A1C-BA8E-3FB823AF1CB3}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,114 +810,114 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
